--- a/biology/Zoologie/Bonite_à_dos_rayé/Bonite_à_dos_rayé.xlsx
+++ b/biology/Zoologie/Bonite_à_dos_rayé/Bonite_à_dos_rayé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bonite_%C3%A0_dos_ray%C3%A9</t>
+          <t>Bonite_à_dos_rayé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La bonite à dos rayé (Sarda sarda), aussi appelée pélamide (du latin Pelamis, signifiant jeune thon[1]), est un poisson de la famille des scombridés. C'est une bonite que l'on trouve de l'Atlantique à la mer Méditerranée et la mer Noire.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La bonite à dos rayé (Sarda sarda), aussi appelée pélamide (du latin Pelamis, signifiant jeune thon), est un poisson de la famille des scombridés. C'est une bonite que l'on trouve de l'Atlantique à la mer Méditerranée et la mer Noire.
 Au Cinquième Jour (v. 263) de La Sepmaine, Guillaume de Saluste Du Bartas parle de « l'Abydoise Amie », car ce poisson (Bonite à dos rayé, Sarda sarda) était très estimé dans la région d'Abydos.
 </t>
         </is>
